--- a/Data/data_dictionary.xlsx
+++ b/Data/data_dictionary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\OneDrive\IMPROVAST\SGL\lims.shiny\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A83B5445-BCF4-4206-8CF1-38B8F41387BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB66F5E2-4EC1-48A2-80B8-8DFB2B27CD98}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1050" yWindow="-120" windowWidth="27870" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29610" yWindow="-120" windowWidth="28110" windowHeight="18240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dictionary" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="88">
   <si>
     <t>lab</t>
   </si>
@@ -291,6 +291,15 @@
   </si>
   <si>
     <t>Sampling strategy</t>
+  </si>
+  <si>
+    <t>Sampling date</t>
+  </si>
+  <si>
+    <t>Laboratory</t>
+  </si>
+  <si>
+    <t>FoodEx1</t>
   </si>
 </sst>
 </file>
@@ -639,12 +648,12 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
+      <selection pane="bottomLeft" activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.5703125" customWidth="1"/>
+    <col min="1" max="1" width="41.140625" customWidth="1"/>
     <col min="2" max="2" width="25.5703125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
@@ -660,6 +669,9 @@
       <c r="A2" t="s">
         <v>0</v>
       </c>
+      <c r="B2" s="2" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -688,6 +700,9 @@
       <c r="A7" t="s">
         <v>5</v>
       </c>
+      <c r="B7" s="2" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -740,6 +755,9 @@
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
